--- a/Data/h2hClientUserData.xlsx
+++ b/Data/h2hClientUserData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynesinclair/Documents/MyProjects/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F13F59-0420-4F4D-8C76-7E986B3CF7B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClientUserData1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>userIdentifier</t>
   </si>
@@ -74,9 +75,6 @@
     <t>preferredDirectory</t>
   </si>
   <si>
-    <t>201200332</t>
-  </si>
-  <si>
     <t>sftpPassword</t>
   </si>
   <si>
@@ -86,20 +84,22 @@
     <t>Wayne11111@</t>
   </si>
   <si>
-    <t xml:space="preserve">Public Key + Username + Password
-</t>
-  </si>
-  <si>
-    <t>0775005904</t>
-  </si>
-  <si>
-    <t>0665005908</t>
+    <t>0089999085</t>
+  </si>
+  <si>
+    <t>2225023121</t>
+  </si>
+  <si>
+    <t>20190330</t>
+  </si>
+  <si>
+    <t>0948549166</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -172,9 +172,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -187,6 +184,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,6 +197,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,12 +467,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,23 +482,24 @@
     <col min="3" max="3" width="41.83203125" style="2" customWidth="1"/>
     <col min="4" max="5" width="27.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -504,7 +508,7 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -514,26 +518,26 @@
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="272" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>21</v>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="288" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -542,25 +546,25 @@
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
+      <c r="I2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="272" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>20</v>
+    <row r="3" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -572,13 +576,45 @@
         <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="288" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
